--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Black Petrel_New Zealand (Great Barrier Island).xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Black Petrel_New Zealand (Great Barrier Island).xlsx
@@ -2840,13 +2840,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E9F58A-3392-40BD-8CD0-B5BDD1863D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3615EE7-9DFA-4691-8532-07D60F44BAB2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3157914-82D1-47A1-80C6-21BA95D43821}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9330123-7D0F-4DCF-8961-897FA96007F6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5D2A0A1-538E-4D73-A248-E16D0797CDC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B2BEAED-431D-46FF-9825-56BDAA639768}"/>
 </file>